--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/peru_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/peru_regiones_queries_.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\01. HUB\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E540C6D-A0AC-418C-840E-DDB6B667A145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FB9D46-A3AC-4EF2-909C-CE3ED45022F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -461,6 +474,45 @@
   </si>
   <si>
     <t>Apurímac, Peru</t>
+  </si>
+  <si>
+    <t>2024-10-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-04 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-11 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-18 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-25 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-30 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -802,13 +854,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC35"/>
+  <dimension ref="A1:DP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CZ9" workbookViewId="0">
+      <selection activeCell="DC9" sqref="DC9:DP9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -824,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -832,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -840,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -848,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -856,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -864,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -872,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1194,8 +1248,47 @@
       <c r="DC10" t="s">
         <v>121</v>
       </c>
+      <c r="DD10" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>151</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>152</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>153</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>154</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>155</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1515,10 +1608,49 @@
         <v>9428</v>
       </c>
       <c r="DC11">
-        <v>1459</v>
+        <v>6934</v>
+      </c>
+      <c r="DD11">
+        <v>6031</v>
+      </c>
+      <c r="DE11">
+        <v>6347</v>
+      </c>
+      <c r="DF11">
+        <v>5903</v>
+      </c>
+      <c r="DG11">
+        <v>4931</v>
+      </c>
+      <c r="DH11">
+        <v>6391</v>
+      </c>
+      <c r="DI11">
+        <v>3901</v>
+      </c>
+      <c r="DJ11">
+        <v>5801</v>
+      </c>
+      <c r="DK11">
+        <v>11543</v>
+      </c>
+      <c r="DL11">
+        <v>7045</v>
+      </c>
+      <c r="DM11">
+        <v>7359</v>
+      </c>
+      <c r="DN11">
+        <v>5009</v>
+      </c>
+      <c r="DO11">
+        <v>4214</v>
+      </c>
+      <c r="DP11">
+        <v>1214</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -1838,10 +1970,49 @@
         <v>328</v>
       </c>
       <c r="DC12">
+        <v>260</v>
+      </c>
+      <c r="DD12">
+        <v>187</v>
+      </c>
+      <c r="DE12">
+        <v>236</v>
+      </c>
+      <c r="DF12">
+        <v>168</v>
+      </c>
+      <c r="DG12">
+        <v>176</v>
+      </c>
+      <c r="DH12">
+        <v>251</v>
+      </c>
+      <c r="DI12">
+        <v>148</v>
+      </c>
+      <c r="DJ12">
+        <v>189</v>
+      </c>
+      <c r="DK12">
+        <v>339</v>
+      </c>
+      <c r="DL12">
+        <v>238</v>
+      </c>
+      <c r="DM12">
+        <v>282</v>
+      </c>
+      <c r="DN12">
+        <v>184</v>
+      </c>
+      <c r="DO12">
+        <v>194</v>
+      </c>
+      <c r="DP12">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2161,10 +2332,49 @@
         <v>276</v>
       </c>
       <c r="DC13">
-        <v>43</v>
+        <v>211</v>
+      </c>
+      <c r="DD13">
+        <v>215</v>
+      </c>
+      <c r="DE13">
+        <v>193</v>
+      </c>
+      <c r="DF13">
+        <v>175</v>
+      </c>
+      <c r="DG13">
+        <v>116</v>
+      </c>
+      <c r="DH13">
+        <v>194</v>
+      </c>
+      <c r="DI13">
+        <v>94</v>
+      </c>
+      <c r="DJ13">
+        <v>171</v>
+      </c>
+      <c r="DK13">
+        <v>404</v>
+      </c>
+      <c r="DL13">
+        <v>225</v>
+      </c>
+      <c r="DM13">
+        <v>241</v>
+      </c>
+      <c r="DN13">
+        <v>185</v>
+      </c>
+      <c r="DO13">
+        <v>118</v>
+      </c>
+      <c r="DP13">
+        <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2484,10 +2694,49 @@
         <v>134</v>
       </c>
       <c r="DC14">
-        <v>27</v>
+        <v>116</v>
+      </c>
+      <c r="DD14">
+        <v>94</v>
+      </c>
+      <c r="DE14">
+        <v>99</v>
+      </c>
+      <c r="DF14">
+        <v>61</v>
+      </c>
+      <c r="DG14">
+        <v>72</v>
+      </c>
+      <c r="DH14">
+        <v>64</v>
+      </c>
+      <c r="DI14">
+        <v>42</v>
+      </c>
+      <c r="DJ14">
+        <v>94</v>
+      </c>
+      <c r="DK14">
+        <v>208</v>
+      </c>
+      <c r="DL14">
+        <v>90</v>
+      </c>
+      <c r="DM14">
+        <v>81</v>
+      </c>
+      <c r="DN14">
+        <v>68</v>
+      </c>
+      <c r="DO14">
+        <v>44</v>
+      </c>
+      <c r="DP14">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -2807,10 +3056,49 @@
         <v>111</v>
       </c>
       <c r="DC15">
+        <v>90</v>
+      </c>
+      <c r="DD15">
+        <v>56</v>
+      </c>
+      <c r="DE15">
+        <v>71</v>
+      </c>
+      <c r="DF15">
+        <v>65</v>
+      </c>
+      <c r="DG15">
+        <v>87</v>
+      </c>
+      <c r="DH15">
+        <v>47</v>
+      </c>
+      <c r="DI15">
+        <v>45</v>
+      </c>
+      <c r="DJ15">
+        <v>64</v>
+      </c>
+      <c r="DK15">
+        <v>104</v>
+      </c>
+      <c r="DL15">
+        <v>53</v>
+      </c>
+      <c r="DM15">
+        <v>74</v>
+      </c>
+      <c r="DN15">
+        <v>30</v>
+      </c>
+      <c r="DO15">
+        <v>28</v>
+      </c>
+      <c r="DP15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3130,10 +3418,49 @@
         <v>134</v>
       </c>
       <c r="DC16">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="DD16">
+        <v>84</v>
+      </c>
+      <c r="DE16">
+        <v>52</v>
+      </c>
+      <c r="DF16">
+        <v>51</v>
+      </c>
+      <c r="DG16">
+        <v>77</v>
+      </c>
+      <c r="DH16">
+        <v>70</v>
+      </c>
+      <c r="DI16">
+        <v>48</v>
+      </c>
+      <c r="DJ16">
+        <v>66</v>
+      </c>
+      <c r="DK16">
+        <v>143</v>
+      </c>
+      <c r="DL16">
+        <v>100</v>
+      </c>
+      <c r="DM16">
+        <v>87</v>
+      </c>
+      <c r="DN16">
+        <v>68</v>
+      </c>
+      <c r="DO16">
+        <v>68</v>
+      </c>
+      <c r="DP16">
+        <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3453,10 +3780,49 @@
         <v>32</v>
       </c>
       <c r="DC17">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="DD17">
+        <v>36</v>
+      </c>
+      <c r="DE17">
+        <v>21</v>
+      </c>
+      <c r="DF17">
+        <v>16</v>
+      </c>
+      <c r="DG17">
+        <v>11</v>
+      </c>
+      <c r="DH17">
+        <v>12</v>
+      </c>
+      <c r="DI17">
+        <v>3</v>
+      </c>
+      <c r="DJ17">
+        <v>20</v>
+      </c>
+      <c r="DK17">
+        <v>38</v>
+      </c>
+      <c r="DL17">
+        <v>16</v>
+      </c>
+      <c r="DM17">
+        <v>19</v>
+      </c>
+      <c r="DN17">
+        <v>8</v>
+      </c>
+      <c r="DO17">
+        <v>16</v>
+      </c>
+      <c r="DP17">
+        <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3776,10 +4142,49 @@
         <v>20</v>
       </c>
       <c r="DC18">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="DD18">
+        <v>8</v>
+      </c>
+      <c r="DE18">
+        <v>14</v>
+      </c>
+      <c r="DF18">
+        <v>11</v>
+      </c>
+      <c r="DG18">
+        <v>11</v>
+      </c>
+      <c r="DH18">
+        <v>9</v>
+      </c>
+      <c r="DI18">
+        <v>9</v>
+      </c>
+      <c r="DJ18">
+        <v>15</v>
+      </c>
+      <c r="DK18">
+        <v>121</v>
+      </c>
+      <c r="DL18">
+        <v>66</v>
+      </c>
+      <c r="DM18">
+        <v>13</v>
+      </c>
+      <c r="DN18">
+        <v>9</v>
+      </c>
+      <c r="DO18">
+        <v>15</v>
+      </c>
+      <c r="DP18">
+        <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -4099,10 +4504,49 @@
         <v>78</v>
       </c>
       <c r="DC19">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="DD19">
+        <v>64</v>
+      </c>
+      <c r="DE19">
+        <v>42</v>
+      </c>
+      <c r="DF19">
+        <v>59</v>
+      </c>
+      <c r="DG19">
+        <v>39</v>
+      </c>
+      <c r="DH19">
+        <v>74</v>
+      </c>
+      <c r="DI19">
+        <v>29</v>
+      </c>
+      <c r="DJ19">
+        <v>88</v>
+      </c>
+      <c r="DK19">
+        <v>141</v>
+      </c>
+      <c r="DL19">
+        <v>59</v>
+      </c>
+      <c r="DM19">
+        <v>66</v>
+      </c>
+      <c r="DN19">
+        <v>40</v>
+      </c>
+      <c r="DO19">
+        <v>19</v>
+      </c>
+      <c r="DP19">
+        <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -4422,10 +4866,49 @@
         <v>5</v>
       </c>
       <c r="DC20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="DD20">
+        <v>4</v>
+      </c>
+      <c r="DE20">
+        <v>4</v>
+      </c>
+      <c r="DF20">
+        <v>4</v>
+      </c>
+      <c r="DG20">
+        <v>11</v>
+      </c>
+      <c r="DH20">
+        <v>11</v>
+      </c>
+      <c r="DI20">
+        <v>4</v>
+      </c>
+      <c r="DJ20">
+        <v>9</v>
+      </c>
+      <c r="DK20">
+        <v>17</v>
+      </c>
+      <c r="DL20">
+        <v>5</v>
+      </c>
+      <c r="DM20">
+        <v>12</v>
+      </c>
+      <c r="DN20">
+        <v>6</v>
+      </c>
+      <c r="DO20">
+        <v>6</v>
+      </c>
+      <c r="DP20">
+        <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -4745,10 +5228,49 @@
         <v>24</v>
       </c>
       <c r="DC21">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="DD21">
+        <v>17</v>
+      </c>
+      <c r="DE21">
+        <v>11</v>
+      </c>
+      <c r="DF21">
+        <v>13</v>
+      </c>
+      <c r="DG21">
+        <v>8</v>
+      </c>
+      <c r="DH21">
+        <v>7</v>
+      </c>
+      <c r="DI21">
+        <v>13</v>
+      </c>
+      <c r="DJ21">
+        <v>10</v>
+      </c>
+      <c r="DK21">
+        <v>24</v>
+      </c>
+      <c r="DL21">
+        <v>14</v>
+      </c>
+      <c r="DM21">
+        <v>29</v>
+      </c>
+      <c r="DN21">
+        <v>7</v>
+      </c>
+      <c r="DO21">
+        <v>6</v>
+      </c>
+      <c r="DP21">
+        <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -5068,10 +5590,49 @@
         <v>27</v>
       </c>
       <c r="DC22">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="DD22">
+        <v>19</v>
+      </c>
+      <c r="DE22">
+        <v>25</v>
+      </c>
+      <c r="DF22">
+        <v>19</v>
+      </c>
+      <c r="DG22">
+        <v>11</v>
+      </c>
+      <c r="DH22">
+        <v>12</v>
+      </c>
+      <c r="DI22">
+        <v>8</v>
+      </c>
+      <c r="DJ22">
+        <v>18</v>
+      </c>
+      <c r="DK22">
+        <v>37</v>
+      </c>
+      <c r="DL22">
+        <v>23</v>
+      </c>
+      <c r="DM22">
+        <v>28</v>
+      </c>
+      <c r="DN22">
+        <v>24</v>
+      </c>
+      <c r="DO22">
+        <v>21</v>
+      </c>
+      <c r="DP22">
+        <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -5391,10 +5952,49 @@
         <v>25</v>
       </c>
       <c r="DC23">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="DD23">
+        <v>36</v>
+      </c>
+      <c r="DE23">
+        <v>35</v>
+      </c>
+      <c r="DF23">
+        <v>39</v>
+      </c>
+      <c r="DG23">
+        <v>21</v>
+      </c>
+      <c r="DH23">
+        <v>20</v>
+      </c>
+      <c r="DI23">
+        <v>10</v>
+      </c>
+      <c r="DJ23">
+        <v>35</v>
+      </c>
+      <c r="DK23">
+        <v>54</v>
+      </c>
+      <c r="DL23">
+        <v>35</v>
+      </c>
+      <c r="DM23">
+        <v>26</v>
+      </c>
+      <c r="DN23">
+        <v>21</v>
+      </c>
+      <c r="DO23">
+        <v>14</v>
+      </c>
+      <c r="DP23">
+        <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -5714,10 +6314,49 @@
         <v>26</v>
       </c>
       <c r="DC24">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="DD24">
+        <v>12</v>
+      </c>
+      <c r="DE24">
+        <v>16</v>
+      </c>
+      <c r="DF24">
+        <v>10</v>
+      </c>
+      <c r="DG24">
+        <v>9</v>
+      </c>
+      <c r="DH24">
+        <v>19</v>
+      </c>
+      <c r="DI24">
+        <v>22</v>
+      </c>
+      <c r="DJ24">
+        <v>18</v>
+      </c>
+      <c r="DK24">
+        <v>34</v>
+      </c>
+      <c r="DL24">
+        <v>20</v>
+      </c>
+      <c r="DM24">
+        <v>16</v>
+      </c>
+      <c r="DN24">
+        <v>20</v>
+      </c>
+      <c r="DO24">
+        <v>10</v>
+      </c>
+      <c r="DP24">
+        <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -6037,10 +6676,49 @@
         <v>12</v>
       </c>
       <c r="DC25">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="DD25">
+        <v>8</v>
+      </c>
+      <c r="DE25">
+        <v>8</v>
+      </c>
+      <c r="DF25">
+        <v>5</v>
+      </c>
+      <c r="DG25">
+        <v>6</v>
+      </c>
+      <c r="DH25">
+        <v>11</v>
+      </c>
+      <c r="DI25">
+        <v>6</v>
+      </c>
+      <c r="DJ25">
+        <v>6</v>
+      </c>
+      <c r="DK25">
+        <v>12</v>
+      </c>
+      <c r="DL25">
+        <v>10</v>
+      </c>
+      <c r="DM25">
+        <v>7</v>
+      </c>
+      <c r="DN25">
+        <v>10</v>
+      </c>
+      <c r="DO25">
+        <v>8</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -6360,10 +7038,49 @@
         <v>5</v>
       </c>
       <c r="DC26">
+        <v>2</v>
+      </c>
+      <c r="DD26">
+        <v>2</v>
+      </c>
+      <c r="DE26">
+        <v>2</v>
+      </c>
+      <c r="DF26">
+        <v>4</v>
+      </c>
+      <c r="DG26">
+        <v>3</v>
+      </c>
+      <c r="DH26">
+        <v>1</v>
+      </c>
+      <c r="DI26">
+        <v>1</v>
+      </c>
+      <c r="DJ26">
+        <v>4</v>
+      </c>
+      <c r="DK26">
+        <v>8</v>
+      </c>
+      <c r="DL26">
+        <v>4</v>
+      </c>
+      <c r="DM26">
+        <v>4</v>
+      </c>
+      <c r="DN26">
+        <v>3</v>
+      </c>
+      <c r="DO26">
+        <v>4</v>
+      </c>
+      <c r="DP26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -6683,10 +7400,49 @@
         <v>43</v>
       </c>
       <c r="DC27">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="DD27">
+        <v>43</v>
+      </c>
+      <c r="DE27">
+        <v>25</v>
+      </c>
+      <c r="DF27">
+        <v>31</v>
+      </c>
+      <c r="DG27">
+        <v>42</v>
+      </c>
+      <c r="DH27">
+        <v>33</v>
+      </c>
+      <c r="DI27">
+        <v>12</v>
+      </c>
+      <c r="DJ27">
+        <v>30</v>
+      </c>
+      <c r="DK27">
+        <v>52</v>
+      </c>
+      <c r="DL27">
+        <v>23</v>
+      </c>
+      <c r="DM27">
+        <v>27</v>
+      </c>
+      <c r="DN27">
+        <v>13</v>
+      </c>
+      <c r="DO27">
+        <v>57</v>
+      </c>
+      <c r="DP27">
+        <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -7006,10 +7762,49 @@
         <v>141</v>
       </c>
       <c r="DC28">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="DD28">
+        <v>79</v>
+      </c>
+      <c r="DE28">
+        <v>77</v>
+      </c>
+      <c r="DF28">
+        <v>27</v>
+      </c>
+      <c r="DG28">
+        <v>21</v>
+      </c>
+      <c r="DH28">
+        <v>38</v>
+      </c>
+      <c r="DI28">
+        <v>8</v>
+      </c>
+      <c r="DJ28">
+        <v>40</v>
+      </c>
+      <c r="DK28">
+        <v>110</v>
+      </c>
+      <c r="DL28">
+        <v>30</v>
+      </c>
+      <c r="DM28">
+        <v>45</v>
+      </c>
+      <c r="DN28">
+        <v>15</v>
+      </c>
+      <c r="DO28">
+        <v>16</v>
+      </c>
+      <c r="DP28">
+        <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -7329,10 +8124,49 @@
         <v>22</v>
       </c>
       <c r="DC29">
+        <v>0</v>
+      </c>
+      <c r="DD29">
+        <v>1</v>
+      </c>
+      <c r="DE29">
+        <v>0</v>
+      </c>
+      <c r="DF29">
+        <v>1</v>
+      </c>
+      <c r="DG29">
+        <v>1</v>
+      </c>
+      <c r="DH29">
         <v>2</v>
       </c>
+      <c r="DI29">
+        <v>0</v>
+      </c>
+      <c r="DJ29">
+        <v>0</v>
+      </c>
+      <c r="DK29">
+        <v>1</v>
+      </c>
+      <c r="DL29">
+        <v>0</v>
+      </c>
+      <c r="DM29">
+        <v>0</v>
+      </c>
+      <c r="DN29">
+        <v>0</v>
+      </c>
+      <c r="DO29">
+        <v>0</v>
+      </c>
+      <c r="DP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -7654,8 +8488,47 @@
       <c r="DC30">
         <v>1</v>
       </c>
+      <c r="DD30">
+        <v>5</v>
+      </c>
+      <c r="DE30">
+        <v>6</v>
+      </c>
+      <c r="DF30">
+        <v>5</v>
+      </c>
+      <c r="DG30">
+        <v>3</v>
+      </c>
+      <c r="DH30">
+        <v>3</v>
+      </c>
+      <c r="DI30">
+        <v>2</v>
+      </c>
+      <c r="DJ30">
+        <v>0</v>
+      </c>
+      <c r="DK30">
+        <v>6</v>
+      </c>
+      <c r="DL30">
+        <v>7</v>
+      </c>
+      <c r="DM30">
+        <v>9</v>
+      </c>
+      <c r="DN30">
+        <v>3</v>
+      </c>
+      <c r="DO30">
+        <v>1</v>
+      </c>
+      <c r="DP30">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -7975,10 +8848,49 @@
         <v>10</v>
       </c>
       <c r="DC31">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="DD31">
+        <v>7</v>
+      </c>
+      <c r="DE31">
+        <v>12</v>
+      </c>
+      <c r="DF31">
+        <v>7</v>
+      </c>
+      <c r="DG31">
+        <v>5</v>
+      </c>
+      <c r="DH31">
+        <v>5</v>
+      </c>
+      <c r="DI31">
+        <v>7</v>
+      </c>
+      <c r="DJ31">
+        <v>10</v>
+      </c>
+      <c r="DK31">
+        <v>8</v>
+      </c>
+      <c r="DL31">
+        <v>5</v>
+      </c>
+      <c r="DM31">
+        <v>1</v>
+      </c>
+      <c r="DN31">
+        <v>3</v>
+      </c>
+      <c r="DO31">
+        <v>1</v>
+      </c>
+      <c r="DP31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -8300,8 +9212,47 @@
       <c r="DC32">
         <v>0</v>
       </c>
+      <c r="DD32">
+        <v>0</v>
+      </c>
+      <c r="DE32">
+        <v>1</v>
+      </c>
+      <c r="DF32">
+        <v>2</v>
+      </c>
+      <c r="DG32">
+        <v>5</v>
+      </c>
+      <c r="DH32">
+        <v>1</v>
+      </c>
+      <c r="DI32">
+        <v>0</v>
+      </c>
+      <c r="DJ32">
+        <v>2</v>
+      </c>
+      <c r="DK32">
+        <v>6</v>
+      </c>
+      <c r="DL32">
+        <v>0</v>
+      </c>
+      <c r="DM32">
+        <v>4</v>
+      </c>
+      <c r="DN32">
+        <v>2</v>
+      </c>
+      <c r="DO32">
+        <v>6</v>
+      </c>
+      <c r="DP32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -8623,8 +9574,47 @@
       <c r="DC33">
         <v>0</v>
       </c>
+      <c r="DD33">
+        <v>1</v>
+      </c>
+      <c r="DE33">
+        <v>0</v>
+      </c>
+      <c r="DF33">
+        <v>1</v>
+      </c>
+      <c r="DG33">
+        <v>0</v>
+      </c>
+      <c r="DH33">
+        <v>0</v>
+      </c>
+      <c r="DI33">
+        <v>0</v>
+      </c>
+      <c r="DJ33">
+        <v>0</v>
+      </c>
+      <c r="DK33">
+        <v>2</v>
+      </c>
+      <c r="DL33">
+        <v>2</v>
+      </c>
+      <c r="DM33">
+        <v>0</v>
+      </c>
+      <c r="DN33">
+        <v>1</v>
+      </c>
+      <c r="DO33">
+        <v>2</v>
+      </c>
+      <c r="DP33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -8946,8 +9936,47 @@
       <c r="DC34">
         <v>0</v>
       </c>
+      <c r="DD34">
+        <v>0</v>
+      </c>
+      <c r="DE34">
+        <v>0</v>
+      </c>
+      <c r="DF34">
+        <v>0</v>
+      </c>
+      <c r="DG34">
+        <v>0</v>
+      </c>
+      <c r="DH34">
+        <v>0</v>
+      </c>
+      <c r="DI34">
+        <v>0</v>
+      </c>
+      <c r="DJ34">
+        <v>0</v>
+      </c>
+      <c r="DK34">
+        <v>1</v>
+      </c>
+      <c r="DL34">
+        <v>0</v>
+      </c>
+      <c r="DM34">
+        <v>0</v>
+      </c>
+      <c r="DN34">
+        <v>1</v>
+      </c>
+      <c r="DO34">
+        <v>0</v>
+      </c>
+      <c r="DP34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -9267,6 +10296,45 @@
         <v>0</v>
       </c>
       <c r="DC35">
+        <v>0</v>
+      </c>
+      <c r="DD35">
+        <v>0</v>
+      </c>
+      <c r="DE35">
+        <v>0</v>
+      </c>
+      <c r="DF35">
+        <v>0</v>
+      </c>
+      <c r="DG35">
+        <v>0</v>
+      </c>
+      <c r="DH35">
+        <v>0</v>
+      </c>
+      <c r="DI35">
+        <v>0</v>
+      </c>
+      <c r="DJ35">
+        <v>0</v>
+      </c>
+      <c r="DK35">
+        <v>0</v>
+      </c>
+      <c r="DL35">
+        <v>0</v>
+      </c>
+      <c r="DM35">
+        <v>0</v>
+      </c>
+      <c r="DN35">
+        <v>0</v>
+      </c>
+      <c r="DO35">
+        <v>0</v>
+      </c>
+      <c r="DP35">
         <v>0</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/peru_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/peru_regiones_queries_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FB9D46-A3AC-4EF2-909C-CE3ED45022F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA65BC3A-F55A-4BCC-9D90-322A065A8FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -513,6 +513,45 @@
   </si>
   <si>
     <t>2024-12-30 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-31 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -854,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP35"/>
+  <dimension ref="A1:EC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ9" workbookViewId="0">
-      <selection activeCell="DC9" sqref="DC9:DP9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -878,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -886,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -894,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -902,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -910,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -918,7 +957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -926,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1326,47 @@
       <c r="DP10" t="s">
         <v>159</v>
       </c>
+      <c r="DQ10" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>161</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>162</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>166</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>167</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>168</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>169</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>170</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>171</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1649,8 +1727,47 @@
       <c r="DP11">
         <v>1214</v>
       </c>
+      <c r="DQ11">
+        <v>15211</v>
+      </c>
+      <c r="DR11">
+        <v>5512</v>
+      </c>
+      <c r="DS11">
+        <v>11370</v>
+      </c>
+      <c r="DT11">
+        <v>13320</v>
+      </c>
+      <c r="DU11">
+        <v>9173</v>
+      </c>
+      <c r="DV11">
+        <v>7220</v>
+      </c>
+      <c r="DW11">
+        <v>5049</v>
+      </c>
+      <c r="DX11">
+        <v>6240</v>
+      </c>
+      <c r="DY11">
+        <v>5662</v>
+      </c>
+      <c r="DZ11">
+        <v>5731</v>
+      </c>
+      <c r="EA11">
+        <v>8788</v>
+      </c>
+      <c r="EB11">
+        <v>12496</v>
+      </c>
+      <c r="EC11">
+        <v>951</v>
+      </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2011,8 +2128,47 @@
       <c r="DP12">
         <v>48</v>
       </c>
+      <c r="DQ12">
+        <v>570</v>
+      </c>
+      <c r="DR12">
+        <v>233</v>
+      </c>
+      <c r="DS12">
+        <v>385</v>
+      </c>
+      <c r="DT12">
+        <v>489</v>
+      </c>
+      <c r="DU12">
+        <v>304</v>
+      </c>
+      <c r="DV12">
+        <v>259</v>
+      </c>
+      <c r="DW12">
+        <v>219</v>
+      </c>
+      <c r="DX12">
+        <v>248</v>
+      </c>
+      <c r="DY12">
+        <v>184</v>
+      </c>
+      <c r="DZ12">
+        <v>171</v>
+      </c>
+      <c r="EA12">
+        <v>284</v>
+      </c>
+      <c r="EB12">
+        <v>408</v>
+      </c>
+      <c r="EC12">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2373,8 +2529,47 @@
       <c r="DP13">
         <v>33</v>
       </c>
+      <c r="DQ13">
+        <v>416</v>
+      </c>
+      <c r="DR13">
+        <v>147</v>
+      </c>
+      <c r="DS13">
+        <v>321</v>
+      </c>
+      <c r="DT13">
+        <v>419</v>
+      </c>
+      <c r="DU13">
+        <v>325</v>
+      </c>
+      <c r="DV13">
+        <v>238</v>
+      </c>
+      <c r="DW13">
+        <v>167</v>
+      </c>
+      <c r="DX13">
+        <v>192</v>
+      </c>
+      <c r="DY13">
+        <v>206</v>
+      </c>
+      <c r="DZ13">
+        <v>229</v>
+      </c>
+      <c r="EA13">
+        <v>365</v>
+      </c>
+      <c r="EB13">
+        <v>398</v>
+      </c>
+      <c r="EC13">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2735,8 +2930,47 @@
       <c r="DP14">
         <v>22</v>
       </c>
+      <c r="DQ14">
+        <v>200</v>
+      </c>
+      <c r="DR14">
+        <v>70</v>
+      </c>
+      <c r="DS14">
+        <v>130</v>
+      </c>
+      <c r="DT14">
+        <v>159</v>
+      </c>
+      <c r="DU14">
+        <v>80</v>
+      </c>
+      <c r="DV14">
+        <v>92</v>
+      </c>
+      <c r="DW14">
+        <v>33</v>
+      </c>
+      <c r="DX14">
+        <v>58</v>
+      </c>
+      <c r="DY14">
+        <v>57</v>
+      </c>
+      <c r="DZ14">
+        <v>80</v>
+      </c>
+      <c r="EA14">
+        <v>98</v>
+      </c>
+      <c r="EB14">
+        <v>157</v>
+      </c>
+      <c r="EC14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3097,8 +3331,47 @@
       <c r="DP15">
         <v>10</v>
       </c>
+      <c r="DQ15">
+        <v>200</v>
+      </c>
+      <c r="DR15">
+        <v>76</v>
+      </c>
+      <c r="DS15">
+        <v>109</v>
+      </c>
+      <c r="DT15">
+        <v>122</v>
+      </c>
+      <c r="DU15">
+        <v>108</v>
+      </c>
+      <c r="DV15">
+        <v>83</v>
+      </c>
+      <c r="DW15">
+        <v>46</v>
+      </c>
+      <c r="DX15">
+        <v>38</v>
+      </c>
+      <c r="DY15">
+        <v>43</v>
+      </c>
+      <c r="DZ15">
+        <v>67</v>
+      </c>
+      <c r="EA15">
+        <v>64</v>
+      </c>
+      <c r="EB15">
+        <v>82</v>
+      </c>
+      <c r="EC15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3459,8 +3732,47 @@
       <c r="DP16">
         <v>13</v>
       </c>
+      <c r="DQ16">
+        <v>109</v>
+      </c>
+      <c r="DR16">
+        <v>55</v>
+      </c>
+      <c r="DS16">
+        <v>108</v>
+      </c>
+      <c r="DT16">
+        <v>144</v>
+      </c>
+      <c r="DU16">
+        <v>138</v>
+      </c>
+      <c r="DV16">
+        <v>95</v>
+      </c>
+      <c r="DW16">
+        <v>66</v>
+      </c>
+      <c r="DX16">
+        <v>58</v>
+      </c>
+      <c r="DY16">
+        <v>72</v>
+      </c>
+      <c r="DZ16">
+        <v>97</v>
+      </c>
+      <c r="EA16">
+        <v>74</v>
+      </c>
+      <c r="EB16">
+        <v>130</v>
+      </c>
+      <c r="EC16">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3821,8 +4133,47 @@
       <c r="DP17">
         <v>6</v>
       </c>
+      <c r="DQ17">
+        <v>59</v>
+      </c>
+      <c r="DR17">
+        <v>10</v>
+      </c>
+      <c r="DS17">
+        <v>33</v>
+      </c>
+      <c r="DT17">
+        <v>44</v>
+      </c>
+      <c r="DU17">
+        <v>32</v>
+      </c>
+      <c r="DV17">
+        <v>30</v>
+      </c>
+      <c r="DW17">
+        <v>12</v>
+      </c>
+      <c r="DX17">
+        <v>19</v>
+      </c>
+      <c r="DY17">
+        <v>12</v>
+      </c>
+      <c r="DZ17">
+        <v>19</v>
+      </c>
+      <c r="EA17">
+        <v>21</v>
+      </c>
+      <c r="EB17">
+        <v>44</v>
+      </c>
+      <c r="EC17">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4183,8 +4534,47 @@
       <c r="DP18">
         <v>3</v>
       </c>
+      <c r="DQ18">
+        <v>60</v>
+      </c>
+      <c r="DR18">
+        <v>21</v>
+      </c>
+      <c r="DS18">
+        <v>32</v>
+      </c>
+      <c r="DT18">
+        <v>51</v>
+      </c>
+      <c r="DU18">
+        <v>29</v>
+      </c>
+      <c r="DV18">
+        <v>14</v>
+      </c>
+      <c r="DW18">
+        <v>11</v>
+      </c>
+      <c r="DX18">
+        <v>22</v>
+      </c>
+      <c r="DY18">
+        <v>12</v>
+      </c>
+      <c r="DZ18">
+        <v>15</v>
+      </c>
+      <c r="EA18">
+        <v>13</v>
+      </c>
+      <c r="EB18">
+        <v>6</v>
+      </c>
+      <c r="EC18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -4545,8 +4935,47 @@
       <c r="DP19">
         <v>11</v>
       </c>
+      <c r="DQ19">
+        <v>144</v>
+      </c>
+      <c r="DR19">
+        <v>48</v>
+      </c>
+      <c r="DS19">
+        <v>124</v>
+      </c>
+      <c r="DT19">
+        <v>134</v>
+      </c>
+      <c r="DU19">
+        <v>83</v>
+      </c>
+      <c r="DV19">
+        <v>81</v>
+      </c>
+      <c r="DW19">
+        <v>56</v>
+      </c>
+      <c r="DX19">
+        <v>94</v>
+      </c>
+      <c r="DY19">
+        <v>72</v>
+      </c>
+      <c r="DZ19">
+        <v>54</v>
+      </c>
+      <c r="EA19">
+        <v>73</v>
+      </c>
+      <c r="EB19">
+        <v>125</v>
+      </c>
+      <c r="EC19">
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -4907,8 +5336,47 @@
       <c r="DP20">
         <v>3</v>
       </c>
+      <c r="DQ20">
+        <v>18</v>
+      </c>
+      <c r="DR20">
+        <v>8</v>
+      </c>
+      <c r="DS20">
+        <v>12</v>
+      </c>
+      <c r="DT20">
+        <v>23</v>
+      </c>
+      <c r="DU20">
+        <v>12</v>
+      </c>
+      <c r="DV20">
+        <v>7</v>
+      </c>
+      <c r="DW20">
+        <v>6</v>
+      </c>
+      <c r="DX20">
+        <v>6</v>
+      </c>
+      <c r="DY20">
+        <v>7</v>
+      </c>
+      <c r="DZ20">
+        <v>5</v>
+      </c>
+      <c r="EA20">
+        <v>5</v>
+      </c>
+      <c r="EB20">
+        <v>22</v>
+      </c>
+      <c r="EC20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -5269,8 +5737,47 @@
       <c r="DP21">
         <v>3</v>
       </c>
+      <c r="DQ21">
+        <v>20</v>
+      </c>
+      <c r="DR21">
+        <v>11</v>
+      </c>
+      <c r="DS21">
+        <v>13</v>
+      </c>
+      <c r="DT21">
+        <v>18</v>
+      </c>
+      <c r="DU21">
+        <v>10</v>
+      </c>
+      <c r="DV21">
+        <v>14</v>
+      </c>
+      <c r="DW21">
+        <v>3</v>
+      </c>
+      <c r="DX21">
+        <v>2</v>
+      </c>
+      <c r="DY21">
+        <v>3</v>
+      </c>
+      <c r="DZ21">
+        <v>7</v>
+      </c>
+      <c r="EA21">
+        <v>9</v>
+      </c>
+      <c r="EB21">
+        <v>20</v>
+      </c>
+      <c r="EC21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -5631,8 +6138,47 @@
       <c r="DP22">
         <v>7</v>
       </c>
+      <c r="DQ22">
+        <v>22</v>
+      </c>
+      <c r="DR22">
+        <v>16</v>
+      </c>
+      <c r="DS22">
+        <v>41</v>
+      </c>
+      <c r="DT22">
+        <v>51</v>
+      </c>
+      <c r="DU22">
+        <v>43</v>
+      </c>
+      <c r="DV22">
+        <v>44</v>
+      </c>
+      <c r="DW22">
+        <v>26</v>
+      </c>
+      <c r="DX22">
+        <v>26</v>
+      </c>
+      <c r="DY22">
+        <v>18</v>
+      </c>
+      <c r="DZ22">
+        <v>21</v>
+      </c>
+      <c r="EA22">
+        <v>37</v>
+      </c>
+      <c r="EB22">
+        <v>48</v>
+      </c>
+      <c r="EC22">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -5993,8 +6539,47 @@
       <c r="DP23">
         <v>4</v>
       </c>
+      <c r="DQ23">
+        <v>52</v>
+      </c>
+      <c r="DR23">
+        <v>21</v>
+      </c>
+      <c r="DS23">
+        <v>43</v>
+      </c>
+      <c r="DT23">
+        <v>52</v>
+      </c>
+      <c r="DU23">
+        <v>42</v>
+      </c>
+      <c r="DV23">
+        <v>22</v>
+      </c>
+      <c r="DW23">
+        <v>17</v>
+      </c>
+      <c r="DX23">
+        <v>20</v>
+      </c>
+      <c r="DY23">
+        <v>27</v>
+      </c>
+      <c r="DZ23">
+        <v>15</v>
+      </c>
+      <c r="EA23">
+        <v>27</v>
+      </c>
+      <c r="EB23">
+        <v>26</v>
+      </c>
+      <c r="EC23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -6355,8 +6940,47 @@
       <c r="DP24">
         <v>18</v>
       </c>
+      <c r="DQ24">
+        <v>53</v>
+      </c>
+      <c r="DR24">
+        <v>23</v>
+      </c>
+      <c r="DS24">
+        <v>61</v>
+      </c>
+      <c r="DT24">
+        <v>32</v>
+      </c>
+      <c r="DU24">
+        <v>21</v>
+      </c>
+      <c r="DV24">
+        <v>21</v>
+      </c>
+      <c r="DW24">
+        <v>21</v>
+      </c>
+      <c r="DX24">
+        <v>17</v>
+      </c>
+      <c r="DY24">
+        <v>11</v>
+      </c>
+      <c r="DZ24">
+        <v>22</v>
+      </c>
+      <c r="EA24">
+        <v>23</v>
+      </c>
+      <c r="EB24">
+        <v>41</v>
+      </c>
+      <c r="EC24">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -6717,8 +7341,47 @@
       <c r="DP25">
         <v>0</v>
       </c>
+      <c r="DQ25">
+        <v>18</v>
+      </c>
+      <c r="DR25">
+        <v>9</v>
+      </c>
+      <c r="DS25">
+        <v>22</v>
+      </c>
+      <c r="DT25">
+        <v>17</v>
+      </c>
+      <c r="DU25">
+        <v>6</v>
+      </c>
+      <c r="DV25">
+        <v>13</v>
+      </c>
+      <c r="DW25">
+        <v>7</v>
+      </c>
+      <c r="DX25">
+        <v>6</v>
+      </c>
+      <c r="DY25">
+        <v>4</v>
+      </c>
+      <c r="DZ25">
+        <v>5</v>
+      </c>
+      <c r="EA25">
+        <v>11</v>
+      </c>
+      <c r="EB25">
+        <v>24</v>
+      </c>
+      <c r="EC25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -7079,8 +7742,47 @@
       <c r="DP26">
         <v>1</v>
       </c>
+      <c r="DQ26">
+        <v>11</v>
+      </c>
+      <c r="DR26">
+        <v>1</v>
+      </c>
+      <c r="DS26">
+        <v>4</v>
+      </c>
+      <c r="DT26">
+        <v>4</v>
+      </c>
+      <c r="DU26">
+        <v>3</v>
+      </c>
+      <c r="DV26">
+        <v>5</v>
+      </c>
+      <c r="DW26">
+        <v>3</v>
+      </c>
+      <c r="DX26">
+        <v>4</v>
+      </c>
+      <c r="DY26">
+        <v>1</v>
+      </c>
+      <c r="DZ26">
+        <v>1</v>
+      </c>
+      <c r="EA26">
+        <v>8</v>
+      </c>
+      <c r="EB26">
+        <v>5</v>
+      </c>
+      <c r="EC26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -7441,8 +8143,47 @@
       <c r="DP27">
         <v>5</v>
       </c>
+      <c r="DQ27">
+        <v>88</v>
+      </c>
+      <c r="DR27">
+        <v>34</v>
+      </c>
+      <c r="DS27">
+        <v>53</v>
+      </c>
+      <c r="DT27">
+        <v>101</v>
+      </c>
+      <c r="DU27">
+        <v>61</v>
+      </c>
+      <c r="DV27">
+        <v>57</v>
+      </c>
+      <c r="DW27">
+        <v>20</v>
+      </c>
+      <c r="DX27">
+        <v>20</v>
+      </c>
+      <c r="DY27">
+        <v>43</v>
+      </c>
+      <c r="DZ27">
+        <v>29</v>
+      </c>
+      <c r="EA27">
+        <v>35</v>
+      </c>
+      <c r="EB27">
+        <v>42</v>
+      </c>
+      <c r="EC27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -7803,8 +8544,47 @@
       <c r="DP28">
         <v>4</v>
       </c>
+      <c r="DQ28">
+        <v>52</v>
+      </c>
+      <c r="DR28">
+        <v>15</v>
+      </c>
+      <c r="DS28">
+        <v>40</v>
+      </c>
+      <c r="DT28">
+        <v>33</v>
+      </c>
+      <c r="DU28">
+        <v>20</v>
+      </c>
+      <c r="DV28">
+        <v>14</v>
+      </c>
+      <c r="DW28">
+        <v>13</v>
+      </c>
+      <c r="DX28">
+        <v>12</v>
+      </c>
+      <c r="DY28">
+        <v>9</v>
+      </c>
+      <c r="DZ28">
+        <v>21</v>
+      </c>
+      <c r="EA28">
+        <v>52</v>
+      </c>
+      <c r="EB28">
+        <v>46</v>
+      </c>
+      <c r="EC28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -8165,8 +8945,47 @@
       <c r="DP29">
         <v>0</v>
       </c>
+      <c r="DQ29">
+        <v>4</v>
+      </c>
+      <c r="DR29">
+        <v>0</v>
+      </c>
+      <c r="DS29">
+        <v>0</v>
+      </c>
+      <c r="DT29">
+        <v>1</v>
+      </c>
+      <c r="DU29">
+        <v>0</v>
+      </c>
+      <c r="DV29">
+        <v>0</v>
+      </c>
+      <c r="DW29">
+        <v>0</v>
+      </c>
+      <c r="DX29">
+        <v>1</v>
+      </c>
+      <c r="DY29">
+        <v>0</v>
+      </c>
+      <c r="DZ29">
+        <v>0</v>
+      </c>
+      <c r="EA29">
+        <v>0</v>
+      </c>
+      <c r="EB29">
+        <v>0</v>
+      </c>
+      <c r="EC29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -8527,8 +9346,47 @@
       <c r="DP30">
         <v>4</v>
       </c>
+      <c r="DQ30">
+        <v>10</v>
+      </c>
+      <c r="DR30">
+        <v>6</v>
+      </c>
+      <c r="DS30">
+        <v>4</v>
+      </c>
+      <c r="DT30">
+        <v>7</v>
+      </c>
+      <c r="DU30">
+        <v>4</v>
+      </c>
+      <c r="DV30">
+        <v>6</v>
+      </c>
+      <c r="DW30">
+        <v>7</v>
+      </c>
+      <c r="DX30">
+        <v>10</v>
+      </c>
+      <c r="DY30">
+        <v>10</v>
+      </c>
+      <c r="DZ30">
+        <v>6</v>
+      </c>
+      <c r="EA30">
+        <v>13</v>
+      </c>
+      <c r="EB30">
+        <v>11</v>
+      </c>
+      <c r="EC30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -8889,8 +9747,47 @@
       <c r="DP31">
         <v>0</v>
       </c>
+      <c r="DQ31">
+        <v>19</v>
+      </c>
+      <c r="DR31">
+        <v>4</v>
+      </c>
+      <c r="DS31">
+        <v>1</v>
+      </c>
+      <c r="DT31">
+        <v>14</v>
+      </c>
+      <c r="DU31">
+        <v>9</v>
+      </c>
+      <c r="DV31">
+        <v>7</v>
+      </c>
+      <c r="DW31">
+        <v>4</v>
+      </c>
+      <c r="DX31">
+        <v>5</v>
+      </c>
+      <c r="DY31">
+        <v>3</v>
+      </c>
+      <c r="DZ31">
+        <v>7</v>
+      </c>
+      <c r="EA31">
+        <v>6</v>
+      </c>
+      <c r="EB31">
+        <v>11</v>
+      </c>
+      <c r="EC31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -9251,8 +10148,47 @@
       <c r="DP32">
         <v>0</v>
       </c>
+      <c r="DQ32">
+        <v>9</v>
+      </c>
+      <c r="DR32">
+        <v>11</v>
+      </c>
+      <c r="DS32">
+        <v>5</v>
+      </c>
+      <c r="DT32">
+        <v>19</v>
+      </c>
+      <c r="DU32">
+        <v>7</v>
+      </c>
+      <c r="DV32">
+        <v>10</v>
+      </c>
+      <c r="DW32">
+        <v>1</v>
+      </c>
+      <c r="DX32">
+        <v>6</v>
+      </c>
+      <c r="DY32">
+        <v>6</v>
+      </c>
+      <c r="DZ32">
+        <v>2</v>
+      </c>
+      <c r="EA32">
+        <v>6</v>
+      </c>
+      <c r="EB32">
+        <v>8</v>
+      </c>
+      <c r="EC32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -9613,8 +10549,47 @@
       <c r="DP33">
         <v>0</v>
       </c>
+      <c r="DQ33">
+        <v>0</v>
+      </c>
+      <c r="DR33">
+        <v>0</v>
+      </c>
+      <c r="DS33">
+        <v>1</v>
+      </c>
+      <c r="DT33">
+        <v>1</v>
+      </c>
+      <c r="DU33">
+        <v>2</v>
+      </c>
+      <c r="DV33">
+        <v>0</v>
+      </c>
+      <c r="DW33">
+        <v>0</v>
+      </c>
+      <c r="DX33">
+        <v>1</v>
+      </c>
+      <c r="DY33">
+        <v>0</v>
+      </c>
+      <c r="DZ33">
+        <v>0</v>
+      </c>
+      <c r="EA33">
+        <v>0</v>
+      </c>
+      <c r="EB33">
+        <v>0</v>
+      </c>
+      <c r="EC33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -9975,8 +10950,47 @@
       <c r="DP34">
         <v>0</v>
       </c>
+      <c r="DQ34">
+        <v>0</v>
+      </c>
+      <c r="DR34">
+        <v>0</v>
+      </c>
+      <c r="DS34">
+        <v>0</v>
+      </c>
+      <c r="DT34">
+        <v>0</v>
+      </c>
+      <c r="DU34">
+        <v>0</v>
+      </c>
+      <c r="DV34">
+        <v>0</v>
+      </c>
+      <c r="DW34">
+        <v>0</v>
+      </c>
+      <c r="DX34">
+        <v>0</v>
+      </c>
+      <c r="DY34">
+        <v>0</v>
+      </c>
+      <c r="DZ34">
+        <v>0</v>
+      </c>
+      <c r="EA34">
+        <v>0</v>
+      </c>
+      <c r="EB34">
+        <v>0</v>
+      </c>
+      <c r="EC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -10335,6 +11349,45 @@
         <v>0</v>
       </c>
       <c r="DP35">
+        <v>0</v>
+      </c>
+      <c r="DQ35">
+        <v>0</v>
+      </c>
+      <c r="DR35">
+        <v>0</v>
+      </c>
+      <c r="DS35">
+        <v>0</v>
+      </c>
+      <c r="DT35">
+        <v>0</v>
+      </c>
+      <c r="DU35">
+        <v>0</v>
+      </c>
+      <c r="DV35">
+        <v>0</v>
+      </c>
+      <c r="DW35">
+        <v>0</v>
+      </c>
+      <c r="DX35">
+        <v>0</v>
+      </c>
+      <c r="DY35">
+        <v>0</v>
+      </c>
+      <c r="DZ35">
+        <v>0</v>
+      </c>
+      <c r="EA35">
+        <v>0</v>
+      </c>
+      <c r="EB35">
+        <v>0</v>
+      </c>
+      <c r="EC35">
         <v>0</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/peru_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/peru_regiones_queries_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/tasa xenofobia regiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA65BC3A-F55A-4BCC-9D90-322A065A8FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0332E33-958C-F74D-9786-597F9879D7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25680" yWindow="680" windowWidth="25360" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -552,6 +552,45 @@
   </si>
   <si>
     <t>2025-03-31 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-05 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-12 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-19 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-26 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-30 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -893,15 +932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EC35"/>
+  <dimension ref="A1:EP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="EB1" workbookViewId="0">
+      <selection activeCell="EE7" sqref="EE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -917,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -925,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -933,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -941,7 +980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -949,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -957,7 +996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -965,7 +1004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1365,8 +1404,47 @@
       <c r="EC10" t="s">
         <v>172</v>
       </c>
+      <c r="ED10" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>174</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>176</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>177</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>178</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>180</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>181</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>182</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>183</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1766,8 +1844,47 @@
       <c r="EC11">
         <v>951</v>
       </c>
+      <c r="ED11">
+        <v>10588</v>
+      </c>
+      <c r="EE11">
+        <v>5108</v>
+      </c>
+      <c r="EF11">
+        <v>6014</v>
+      </c>
+      <c r="EG11">
+        <v>6014</v>
+      </c>
+      <c r="EH11">
+        <v>4259</v>
+      </c>
+      <c r="EI11">
+        <v>4051</v>
+      </c>
+      <c r="EJ11">
+        <v>4167</v>
+      </c>
+      <c r="EK11">
+        <v>3343</v>
+      </c>
+      <c r="EL11">
+        <v>5314</v>
+      </c>
+      <c r="EM11">
+        <v>5757</v>
+      </c>
+      <c r="EN11">
+        <v>3324</v>
+      </c>
+      <c r="EO11">
+        <v>3340</v>
+      </c>
+      <c r="EP11">
+        <v>536</v>
+      </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2167,8 +2284,47 @@
       <c r="EC12">
         <v>24</v>
       </c>
+      <c r="ED12">
+        <v>249</v>
+      </c>
+      <c r="EE12">
+        <v>140</v>
+      </c>
+      <c r="EF12">
+        <v>178</v>
+      </c>
+      <c r="EG12">
+        <v>164</v>
+      </c>
+      <c r="EH12">
+        <v>139</v>
+      </c>
+      <c r="EI12">
+        <v>127</v>
+      </c>
+      <c r="EJ12">
+        <v>140</v>
+      </c>
+      <c r="EK12">
+        <v>104</v>
+      </c>
+      <c r="EL12">
+        <v>162</v>
+      </c>
+      <c r="EM12">
+        <v>145</v>
+      </c>
+      <c r="EN12">
+        <v>119</v>
+      </c>
+      <c r="EO12">
+        <v>124</v>
+      </c>
+      <c r="EP12">
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2568,8 +2724,47 @@
       <c r="EC13">
         <v>32</v>
       </c>
+      <c r="ED13">
+        <v>273</v>
+      </c>
+      <c r="EE13">
+        <v>144</v>
+      </c>
+      <c r="EF13">
+        <v>209</v>
+      </c>
+      <c r="EG13">
+        <v>245</v>
+      </c>
+      <c r="EH13">
+        <v>129</v>
+      </c>
+      <c r="EI13">
+        <v>139</v>
+      </c>
+      <c r="EJ13">
+        <v>82</v>
+      </c>
+      <c r="EK13">
+        <v>81</v>
+      </c>
+      <c r="EL13">
+        <v>165</v>
+      </c>
+      <c r="EM13">
+        <v>187</v>
+      </c>
+      <c r="EN13">
+        <v>120</v>
+      </c>
+      <c r="EO13">
+        <v>80</v>
+      </c>
+      <c r="EP13">
+        <v>16</v>
+      </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2969,8 +3164,47 @@
       <c r="EC14">
         <v>6</v>
       </c>
+      <c r="ED14">
+        <v>101</v>
+      </c>
+      <c r="EE14">
+        <v>37</v>
+      </c>
+      <c r="EF14">
+        <v>68</v>
+      </c>
+      <c r="EG14">
+        <v>62</v>
+      </c>
+      <c r="EH14">
+        <v>48</v>
+      </c>
+      <c r="EI14">
+        <v>31</v>
+      </c>
+      <c r="EJ14">
+        <v>35</v>
+      </c>
+      <c r="EK14">
+        <v>31</v>
+      </c>
+      <c r="EL14">
+        <v>48</v>
+      </c>
+      <c r="EM14">
+        <v>74</v>
+      </c>
+      <c r="EN14">
+        <v>20</v>
+      </c>
+      <c r="EO14">
+        <v>31</v>
+      </c>
+      <c r="EP14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3370,8 +3604,47 @@
       <c r="EC15">
         <v>6</v>
       </c>
+      <c r="ED15">
+        <v>101</v>
+      </c>
+      <c r="EE15">
+        <v>43</v>
+      </c>
+      <c r="EF15">
+        <v>50</v>
+      </c>
+      <c r="EG15">
+        <v>54</v>
+      </c>
+      <c r="EH15">
+        <v>30</v>
+      </c>
+      <c r="EI15">
+        <v>44</v>
+      </c>
+      <c r="EJ15">
+        <v>42</v>
+      </c>
+      <c r="EK15">
+        <v>24</v>
+      </c>
+      <c r="EL15">
+        <v>31</v>
+      </c>
+      <c r="EM15">
+        <v>58</v>
+      </c>
+      <c r="EN15">
+        <v>25</v>
+      </c>
+      <c r="EO15">
+        <v>27</v>
+      </c>
+      <c r="EP15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3771,8 +4044,47 @@
       <c r="EC16">
         <v>10</v>
       </c>
+      <c r="ED16">
+        <v>131</v>
+      </c>
+      <c r="EE16">
+        <v>66</v>
+      </c>
+      <c r="EF16">
+        <v>58</v>
+      </c>
+      <c r="EG16">
+        <v>71</v>
+      </c>
+      <c r="EH16">
+        <v>69</v>
+      </c>
+      <c r="EI16">
+        <v>59</v>
+      </c>
+      <c r="EJ16">
+        <v>41</v>
+      </c>
+      <c r="EK16">
+        <v>21</v>
+      </c>
+      <c r="EL16">
+        <v>48</v>
+      </c>
+      <c r="EM16">
+        <v>79</v>
+      </c>
+      <c r="EN16">
+        <v>39</v>
+      </c>
+      <c r="EO16">
+        <v>50</v>
+      </c>
+      <c r="EP16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -4172,8 +4484,47 @@
       <c r="EC17">
         <v>3</v>
       </c>
+      <c r="ED17">
+        <v>30</v>
+      </c>
+      <c r="EE17">
+        <v>17</v>
+      </c>
+      <c r="EF17">
+        <v>13</v>
+      </c>
+      <c r="EG17">
+        <v>21</v>
+      </c>
+      <c r="EH17">
+        <v>11</v>
+      </c>
+      <c r="EI17">
+        <v>14</v>
+      </c>
+      <c r="EJ17">
+        <v>11</v>
+      </c>
+      <c r="EK17">
+        <v>4</v>
+      </c>
+      <c r="EL17">
+        <v>18</v>
+      </c>
+      <c r="EM17">
+        <v>17</v>
+      </c>
+      <c r="EN17">
+        <v>18</v>
+      </c>
+      <c r="EO17">
+        <v>19</v>
+      </c>
+      <c r="EP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4573,8 +4924,47 @@
       <c r="EC18">
         <v>2</v>
       </c>
+      <c r="ED18">
+        <v>16</v>
+      </c>
+      <c r="EE18">
+        <v>4</v>
+      </c>
+      <c r="EF18">
+        <v>15</v>
+      </c>
+      <c r="EG18">
+        <v>22</v>
+      </c>
+      <c r="EH18">
+        <v>8</v>
+      </c>
+      <c r="EI18">
+        <v>7</v>
+      </c>
+      <c r="EJ18">
+        <v>7</v>
+      </c>
+      <c r="EK18">
+        <v>3</v>
+      </c>
+      <c r="EL18">
+        <v>8</v>
+      </c>
+      <c r="EM18">
+        <v>10</v>
+      </c>
+      <c r="EN18">
+        <v>7</v>
+      </c>
+      <c r="EO18">
+        <v>13</v>
+      </c>
+      <c r="EP18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -4974,8 +5364,47 @@
       <c r="EC19">
         <v>9</v>
       </c>
+      <c r="ED19">
+        <v>116</v>
+      </c>
+      <c r="EE19">
+        <v>54</v>
+      </c>
+      <c r="EF19">
+        <v>60</v>
+      </c>
+      <c r="EG19">
+        <v>54</v>
+      </c>
+      <c r="EH19">
+        <v>41</v>
+      </c>
+      <c r="EI19">
+        <v>33</v>
+      </c>
+      <c r="EJ19">
+        <v>37</v>
+      </c>
+      <c r="EK19">
+        <v>27</v>
+      </c>
+      <c r="EL19">
+        <v>26</v>
+      </c>
+      <c r="EM19">
+        <v>53</v>
+      </c>
+      <c r="EN19">
+        <v>39</v>
+      </c>
+      <c r="EO19">
+        <v>27</v>
+      </c>
+      <c r="EP19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -5375,8 +5804,47 @@
       <c r="EC20">
         <v>0</v>
       </c>
+      <c r="ED20">
+        <v>11</v>
+      </c>
+      <c r="EE20">
+        <v>6</v>
+      </c>
+      <c r="EF20">
+        <v>3</v>
+      </c>
+      <c r="EG20">
+        <v>5</v>
+      </c>
+      <c r="EH20">
+        <v>4</v>
+      </c>
+      <c r="EI20">
+        <v>2</v>
+      </c>
+      <c r="EJ20">
+        <v>4</v>
+      </c>
+      <c r="EK20">
+        <v>3</v>
+      </c>
+      <c r="EL20">
+        <v>4</v>
+      </c>
+      <c r="EM20">
+        <v>6</v>
+      </c>
+      <c r="EN20">
+        <v>7</v>
+      </c>
+      <c r="EO20">
+        <v>6</v>
+      </c>
+      <c r="EP20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -5776,8 +6244,47 @@
       <c r="EC21">
         <v>0</v>
       </c>
+      <c r="ED21">
+        <v>10</v>
+      </c>
+      <c r="EE21">
+        <v>6</v>
+      </c>
+      <c r="EF21">
+        <v>9</v>
+      </c>
+      <c r="EG21">
+        <v>3</v>
+      </c>
+      <c r="EH21">
+        <v>3</v>
+      </c>
+      <c r="EI21">
+        <v>0</v>
+      </c>
+      <c r="EJ21">
+        <v>4</v>
+      </c>
+      <c r="EK21">
+        <v>1</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>4</v>
+      </c>
+      <c r="EN21">
+        <v>4</v>
+      </c>
+      <c r="EO21">
+        <v>4</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -6177,8 +6684,47 @@
       <c r="EC22">
         <v>4</v>
       </c>
+      <c r="ED22">
+        <v>52</v>
+      </c>
+      <c r="EE22">
+        <v>23</v>
+      </c>
+      <c r="EF22">
+        <v>24</v>
+      </c>
+      <c r="EG22">
+        <v>30</v>
+      </c>
+      <c r="EH22">
+        <v>18</v>
+      </c>
+      <c r="EI22">
+        <v>13</v>
+      </c>
+      <c r="EJ22">
+        <v>23</v>
+      </c>
+      <c r="EK22">
+        <v>15</v>
+      </c>
+      <c r="EL22">
+        <v>31</v>
+      </c>
+      <c r="EM22">
+        <v>29</v>
+      </c>
+      <c r="EN22">
+        <v>21</v>
+      </c>
+      <c r="EO22">
+        <v>13</v>
+      </c>
+      <c r="EP22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -6578,8 +7124,47 @@
       <c r="EC23">
         <v>2</v>
       </c>
+      <c r="ED23">
+        <v>22</v>
+      </c>
+      <c r="EE23">
+        <v>17</v>
+      </c>
+      <c r="EF23">
+        <v>23</v>
+      </c>
+      <c r="EG23">
+        <v>13</v>
+      </c>
+      <c r="EH23">
+        <v>10</v>
+      </c>
+      <c r="EI23">
+        <v>17</v>
+      </c>
+      <c r="EJ23">
+        <v>7</v>
+      </c>
+      <c r="EK23">
+        <v>10</v>
+      </c>
+      <c r="EL23">
+        <v>17</v>
+      </c>
+      <c r="EM23">
+        <v>8</v>
+      </c>
+      <c r="EN23">
+        <v>9</v>
+      </c>
+      <c r="EO23">
+        <v>11</v>
+      </c>
+      <c r="EP23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -6979,8 +7564,47 @@
       <c r="EC24">
         <v>8</v>
       </c>
+      <c r="ED24">
+        <v>26</v>
+      </c>
+      <c r="EE24">
+        <v>17</v>
+      </c>
+      <c r="EF24">
+        <v>14</v>
+      </c>
+      <c r="EG24">
+        <v>27</v>
+      </c>
+      <c r="EH24">
+        <v>9</v>
+      </c>
+      <c r="EI24">
+        <v>16</v>
+      </c>
+      <c r="EJ24">
+        <v>14</v>
+      </c>
+      <c r="EK24">
+        <v>8</v>
+      </c>
+      <c r="EL24">
+        <v>20</v>
+      </c>
+      <c r="EM24">
+        <v>14</v>
+      </c>
+      <c r="EN24">
+        <v>12</v>
+      </c>
+      <c r="EO24">
+        <v>17</v>
+      </c>
+      <c r="EP24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -7380,8 +8004,47 @@
       <c r="EC25">
         <v>0</v>
       </c>
+      <c r="ED25">
+        <v>8</v>
+      </c>
+      <c r="EE25">
+        <v>7</v>
+      </c>
+      <c r="EF25">
+        <v>3</v>
+      </c>
+      <c r="EG25">
+        <v>5</v>
+      </c>
+      <c r="EH25">
+        <v>0</v>
+      </c>
+      <c r="EI25">
+        <v>9</v>
+      </c>
+      <c r="EJ25">
+        <v>5</v>
+      </c>
+      <c r="EK25">
+        <v>5</v>
+      </c>
+      <c r="EL25">
+        <v>4</v>
+      </c>
+      <c r="EM25">
+        <v>13</v>
+      </c>
+      <c r="EN25">
+        <v>0</v>
+      </c>
+      <c r="EO25">
+        <v>4</v>
+      </c>
+      <c r="EP25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -7781,8 +8444,47 @@
       <c r="EC26">
         <v>0</v>
       </c>
+      <c r="ED26">
+        <v>3</v>
+      </c>
+      <c r="EE26">
+        <v>2</v>
+      </c>
+      <c r="EF26">
+        <v>9</v>
+      </c>
+      <c r="EG26">
+        <v>5</v>
+      </c>
+      <c r="EH26">
+        <v>5</v>
+      </c>
+      <c r="EI26">
+        <v>1</v>
+      </c>
+      <c r="EJ26">
+        <v>1</v>
+      </c>
+      <c r="EK26">
+        <v>2</v>
+      </c>
+      <c r="EL26">
+        <v>6</v>
+      </c>
+      <c r="EM26">
+        <v>0</v>
+      </c>
+      <c r="EN26">
+        <v>1</v>
+      </c>
+      <c r="EO26">
+        <v>3</v>
+      </c>
+      <c r="EP26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -8182,8 +8884,47 @@
       <c r="EC27">
         <v>2</v>
       </c>
+      <c r="ED27">
+        <v>54</v>
+      </c>
+      <c r="EE27">
+        <v>20</v>
+      </c>
+      <c r="EF27">
+        <v>30</v>
+      </c>
+      <c r="EG27">
+        <v>26</v>
+      </c>
+      <c r="EH27">
+        <v>25</v>
+      </c>
+      <c r="EI27">
+        <v>27</v>
+      </c>
+      <c r="EJ27">
+        <v>8</v>
+      </c>
+      <c r="EK27">
+        <v>22</v>
+      </c>
+      <c r="EL27">
+        <v>25</v>
+      </c>
+      <c r="EM27">
+        <v>45</v>
+      </c>
+      <c r="EN27">
+        <v>26</v>
+      </c>
+      <c r="EO27">
+        <v>21</v>
+      </c>
+      <c r="EP27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -8583,8 +9324,47 @@
       <c r="EC28">
         <v>2</v>
       </c>
+      <c r="ED28">
+        <v>39</v>
+      </c>
+      <c r="EE28">
+        <v>14</v>
+      </c>
+      <c r="EF28">
+        <v>18</v>
+      </c>
+      <c r="EG28">
+        <v>20</v>
+      </c>
+      <c r="EH28">
+        <v>13</v>
+      </c>
+      <c r="EI28">
+        <v>11</v>
+      </c>
+      <c r="EJ28">
+        <v>16</v>
+      </c>
+      <c r="EK28">
+        <v>16</v>
+      </c>
+      <c r="EL28">
+        <v>18</v>
+      </c>
+      <c r="EM28">
+        <v>15</v>
+      </c>
+      <c r="EN28">
+        <v>14</v>
+      </c>
+      <c r="EO28">
+        <v>12</v>
+      </c>
+      <c r="EP28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -8984,8 +9764,47 @@
       <c r="EC29">
         <v>0</v>
       </c>
+      <c r="ED29">
+        <v>1</v>
+      </c>
+      <c r="EE29">
+        <v>0</v>
+      </c>
+      <c r="EF29">
+        <v>0</v>
+      </c>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29">
+        <v>0</v>
+      </c>
+      <c r="EI29">
+        <v>0</v>
+      </c>
+      <c r="EJ29">
+        <v>0</v>
+      </c>
+      <c r="EK29">
+        <v>0</v>
+      </c>
+      <c r="EL29">
+        <v>0</v>
+      </c>
+      <c r="EM29">
+        <v>0</v>
+      </c>
+      <c r="EN29">
+        <v>0</v>
+      </c>
+      <c r="EO29">
+        <v>0</v>
+      </c>
+      <c r="EP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -9385,8 +10204,47 @@
       <c r="EC30">
         <v>1</v>
       </c>
+      <c r="ED30">
+        <v>5</v>
+      </c>
+      <c r="EE30">
+        <v>5</v>
+      </c>
+      <c r="EF30">
+        <v>4</v>
+      </c>
+      <c r="EG30">
+        <v>14</v>
+      </c>
+      <c r="EH30">
+        <v>6</v>
+      </c>
+      <c r="EI30">
+        <v>5</v>
+      </c>
+      <c r="EJ30">
+        <v>6</v>
+      </c>
+      <c r="EK30">
+        <v>4</v>
+      </c>
+      <c r="EL30">
+        <v>3</v>
+      </c>
+      <c r="EM30">
+        <v>5</v>
+      </c>
+      <c r="EN30">
+        <v>2</v>
+      </c>
+      <c r="EO30">
+        <v>0</v>
+      </c>
+      <c r="EP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -9786,8 +10644,47 @@
       <c r="EC31">
         <v>0</v>
       </c>
+      <c r="ED31">
+        <v>4</v>
+      </c>
+      <c r="EE31">
+        <v>4</v>
+      </c>
+      <c r="EF31">
+        <v>3</v>
+      </c>
+      <c r="EG31">
+        <v>2</v>
+      </c>
+      <c r="EH31">
+        <v>2</v>
+      </c>
+      <c r="EI31">
+        <v>2</v>
+      </c>
+      <c r="EJ31">
+        <v>0</v>
+      </c>
+      <c r="EK31">
+        <v>3</v>
+      </c>
+      <c r="EL31">
+        <v>2</v>
+      </c>
+      <c r="EM31">
+        <v>0</v>
+      </c>
+      <c r="EN31">
+        <v>1</v>
+      </c>
+      <c r="EO31">
+        <v>4</v>
+      </c>
+      <c r="EP31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -10187,8 +11084,47 @@
       <c r="EC32">
         <v>0</v>
       </c>
+      <c r="ED32">
+        <v>11</v>
+      </c>
+      <c r="EE32">
+        <v>6</v>
+      </c>
+      <c r="EF32">
+        <v>5</v>
+      </c>
+      <c r="EG32">
+        <v>4</v>
+      </c>
+      <c r="EH32">
+        <v>1</v>
+      </c>
+      <c r="EI32">
+        <v>2</v>
+      </c>
+      <c r="EJ32">
+        <v>1</v>
+      </c>
+      <c r="EK32">
+        <v>0</v>
+      </c>
+      <c r="EL32">
+        <v>4</v>
+      </c>
+      <c r="EM32">
+        <v>0</v>
+      </c>
+      <c r="EN32">
+        <v>1</v>
+      </c>
+      <c r="EO32">
+        <v>6</v>
+      </c>
+      <c r="EP32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -10588,8 +11524,47 @@
       <c r="EC33">
         <v>0</v>
       </c>
+      <c r="ED33">
+        <v>0</v>
+      </c>
+      <c r="EE33">
+        <v>0</v>
+      </c>
+      <c r="EF33">
+        <v>0</v>
+      </c>
+      <c r="EG33">
+        <v>1</v>
+      </c>
+      <c r="EH33">
+        <v>0</v>
+      </c>
+      <c r="EI33">
+        <v>0</v>
+      </c>
+      <c r="EJ33">
+        <v>0</v>
+      </c>
+      <c r="EK33">
+        <v>0</v>
+      </c>
+      <c r="EL33">
+        <v>0</v>
+      </c>
+      <c r="EM33">
+        <v>0</v>
+      </c>
+      <c r="EN33">
+        <v>1</v>
+      </c>
+      <c r="EO33">
+        <v>0</v>
+      </c>
+      <c r="EP33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -10989,8 +11964,47 @@
       <c r="EC34">
         <v>0</v>
       </c>
+      <c r="ED34">
+        <v>0</v>
+      </c>
+      <c r="EE34">
+        <v>1</v>
+      </c>
+      <c r="EF34">
+        <v>0</v>
+      </c>
+      <c r="EG34">
+        <v>1</v>
+      </c>
+      <c r="EH34">
+        <v>0</v>
+      </c>
+      <c r="EI34">
+        <v>0</v>
+      </c>
+      <c r="EJ34">
+        <v>0</v>
+      </c>
+      <c r="EK34">
+        <v>0</v>
+      </c>
+      <c r="EL34">
+        <v>1</v>
+      </c>
+      <c r="EM34">
+        <v>0</v>
+      </c>
+      <c r="EN34">
+        <v>0</v>
+      </c>
+      <c r="EO34">
+        <v>0</v>
+      </c>
+      <c r="EP34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -11388,6 +12402,45 @@
         <v>0</v>
       </c>
       <c r="EC35">
+        <v>0</v>
+      </c>
+      <c r="ED35">
+        <v>0</v>
+      </c>
+      <c r="EE35">
+        <v>0</v>
+      </c>
+      <c r="EF35">
+        <v>0</v>
+      </c>
+      <c r="EG35">
+        <v>0</v>
+      </c>
+      <c r="EH35">
+        <v>0</v>
+      </c>
+      <c r="EI35">
+        <v>0</v>
+      </c>
+      <c r="EJ35">
+        <v>0</v>
+      </c>
+      <c r="EK35">
+        <v>0</v>
+      </c>
+      <c r="EL35">
+        <v>0</v>
+      </c>
+      <c r="EM35">
+        <v>0</v>
+      </c>
+      <c r="EN35">
+        <v>0</v>
+      </c>
+      <c r="EO35">
+        <v>0</v>
+      </c>
+      <c r="EP35">
         <v>0</v>
       </c>
     </row>
